--- a/demo/导表/电气入库/3主变压器.xlsx
+++ b/demo/导表/电气入库/3主变压器.xlsx
@@ -19,64 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>额定容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额定电压比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接线组别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻抗电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>噪音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有载调压开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主变压器接地方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变压器额定电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变压器中性点耐受电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氧化锌避雷器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放电间隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流互感器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,13 +179,69 @@
       </rPr>
       <t>5P30</t>
     </r>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>RatedVoltageRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiringGroup</t>
+  </si>
+  <si>
+    <t>ImpedanceVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnloadTapChanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTGroundingMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransformerRatedVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransformerNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZincOxideArrester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DischargingGap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentTransformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedCapacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +269,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,10 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -641,107 +651,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="18.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
